--- a/tutorial cuby/tutorial_cuby.xlsx
+++ b/tutorial cuby/tutorial_cuby.xlsx
@@ -5209,7 +5209,7 @@
   <dimension ref="C10:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
